--- a/data/long_razon/P50-Estudios-long_razon.xlsx
+++ b/data/long_razon/P50-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-25,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-24,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-19,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-22,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-13,12%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 123,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-56,78; 28,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-49,22; 7,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 28,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-38,74; 11,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 32,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 51,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 5,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 7,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>45,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-27,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-21,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 90,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,58; 9,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 65,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 86,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,78; -8,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 27,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,74; 73,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,2; -3,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 36,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-17,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-15,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1103,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 100,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-39,27; 27,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 63,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 88,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,36; 5,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 76,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,89; 75,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 6,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 59,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-16,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,268 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,14; 70,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 0,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 29,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,19; 53,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,01; -10,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 28,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 52,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,92; -7,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 24,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P50-Estudios-long_razon.xlsx
+++ b/data/long_razon/P50-Estudios-long_razon.xlsx
@@ -683,20 +683,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.00485070088334754</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.04342182477429066</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2529158447363851</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.5601425170230404</v>
+      </c>
       <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>-0.03070001385946876</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.1434986634167782</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.06789910115102621</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.2377838711646391</v>
+      </c>
       <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
+        <v>-0.01495064173202292</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.06774806473544044</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.1622888657968717</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.0603607813010781</v>
+      </c>
       <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -706,20 +730,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.4867430204810094</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3675542725303725</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4829238086726984</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.09344589186916159</v>
+      </c>
       <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-0.3522373381611895</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3873796413444028</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.2956607158782082</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.5119963646844219</v>
+      </c>
       <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
+        <v>-0.3074145669463997</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.3141384092136955</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.3462509216649401</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.2289675378739218</v>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -729,20 +777,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.6848718168206697</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.823441630205976</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.07396145048284355</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.178539939849907</v>
+      </c>
       <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>0.4430615056293581</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.2831447908144855</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.2538183879452259</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.1383602874415151</v>
+      </c>
       <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
+        <v>0.3532011614182751</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.3257882354565502</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.05414074792659137</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.7545949848504863</v>
+      </c>
       <c r="Q6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -756,20 +828,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.7190213622651154</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1993305681941024</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2269598866844421</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.004997075415597493</v>
+      </c>
       <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>0.4194116552494093</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.2762740437382141</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.0836011387983399</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.1463933933884494</v>
+      </c>
       <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
+        <v>0.5553316177054733</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.23880338391692</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.1508362824180843</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-0.07072347947275816</v>
+      </c>
       <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -779,20 +875,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>0.2547324139096538</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.418550608136423</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.06179674641425534</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2570323801521762</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>0.06539529702954809</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4290420033138844</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.1092408359491319</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.3257297563713343</v>
+      </c>
       <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
+        <v>0.2409383155310742</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.3740015288595575</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.01990008529327691</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.2288462759887419</v>
+      </c>
       <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -802,20 +922,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>1.534874856374894</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.09152390699542097</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.6983504401585848</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3720636368393448</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>0.8441376785358276</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>-0.04367244764610945</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3279408170287305</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.06771712333453611</v>
+      </c>
       <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="n">
+        <v>0.9262442995312272</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>-0.08287142788206685</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.3686975479687055</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.132617303816997</v>
+      </c>
       <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -829,20 +973,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.18176334729646</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.03194109813918126</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.196126171751024</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.01360909368427099</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>0.5574488134044564</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.1710344160392149</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.3629971973701321</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.2912440278308661</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>0.3705680637000762</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.08460555709276843</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.2764606862250391</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>-0.1550007233453282</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1020,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.2251975617766128</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3039313190626999</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1190232548146372</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2784664056163322</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>0.1127214826098819</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3506797942981175</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.0173166121865333</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.4549660168392844</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>0.05337658603406127</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.272750641597337</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>0.02946956958450252</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.3091936270073836</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1067,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.8783425115722751</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.5588877158943226</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.5817533830607262</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.4536877482779184</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>1.175848287168605</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.1143507519750694</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.8052159008795845</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.0683121906829089</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>0.7534409877030481</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.1671921452469204</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.5459109000639096</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.05749991602811209</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,20 +1118,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.3890785132145982</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.09356318574921785</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.07212688606497407</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1048532404052962</v>
+      </c>
       <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>0.3482684782369093</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.2156976780103136</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.102474063008239</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.217412632958657</v>
+      </c>
       <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="n">
+        <v>0.3672094808879365</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.1603597463313374</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.08751787259722986</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>-0.07063548472376427</v>
+      </c>
       <c r="Q13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -925,20 +1165,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>0.08849124099902743</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2894614543104447</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1120421043128836</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.08339765190456723</v>
+      </c>
       <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>0.1174617963250515</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.3384323422561515</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.04356493399366915</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.3377811008179411</v>
+      </c>
       <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="n">
+        <v>0.1767876952409858</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.2674953546677418</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.04223704774382555</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.181775715424963</v>
+      </c>
       <c r="Q14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -948,20 +1212,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.7842064112904802</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.1314960851740158</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2912279727702131</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.4296131022605244</v>
+      </c>
       <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>0.6288464712501676</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.06381667779197203</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.2624220073045545</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.07207174453235855</v>
+      </c>
       <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="n">
+        <v>0.5822404194819498</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-0.02906222994321089</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.2167281137025549</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.08078072800906032</v>
+      </c>
       <c r="Q15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
